--- a/table_overleaf/RQ3-tmp.xlsx
+++ b/table_overleaf/RQ3-tmp.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinghua.li/Documents/Pycharm/NodeRank/table_overleaf/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A62B17-9E82-EE4A-AF97-844DC56BC5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -398,212 +450,212 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.5061</v>
+        <v>0.50609999999999999</v>
       </c>
       <c r="B2">
         <v>0.4919</v>
       </c>
       <c r="C2">
-        <v>0.507</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D2">
-        <v>0.5034</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="E2">
-        <v>0.5007</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="F2">
-        <v>0.4994</v>
+        <v>0.49940000000000001</v>
       </c>
       <c r="G2">
-        <v>0.5007</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="H2">
-        <v>0.5034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.50339999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.6818</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="B3">
-        <v>0.6876</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="C3">
-        <v>0.7079</v>
+        <v>0.70789999999999997</v>
       </c>
       <c r="D3">
         <v>0.71</v>
       </c>
       <c r="E3">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F3">
-        <v>0.6826</v>
+        <v>0.68259999999999998</v>
       </c>
       <c r="G3">
-        <v>0.7025</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="H3">
-        <v>0.706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.6822</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="B4">
         <v>0.7157</v>
       </c>
       <c r="C4">
-        <v>0.7102000000000001</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="D4">
-        <v>0.7112000000000001</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="E4">
-        <v>0.6742</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="F4">
-        <v>0.7064</v>
+        <v>0.70640000000000003</v>
       </c>
       <c r="G4">
         <v>0.7077</v>
       </c>
       <c r="H4">
-        <v>0.7088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.70879999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6453</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="B5">
-        <v>0.6891</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="C5">
         <v>0.6724</v>
       </c>
       <c r="D5">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="E5">
-        <v>0.6446</v>
+        <v>0.64459999999999995</v>
       </c>
       <c r="F5">
-        <v>0.6821</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="G5">
         <v>0.6754</v>
       </c>
       <c r="H5">
-        <v>0.6681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.66810000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.7546</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="B6">
-        <v>0.7523</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="C6">
-        <v>0.7546</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="D6">
-        <v>0.7519</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="E6">
-        <v>0.7572</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="F6">
-        <v>0.7527</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="G6">
-        <v>0.7612</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="H6">
-        <v>0.7502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.75019999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.7551</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="B7">
-        <v>0.7548</v>
+        <v>0.75480000000000003</v>
       </c>
       <c r="C7">
-        <v>0.7628</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="D7">
         <v>0.7571</v>
       </c>
       <c r="E7">
-        <v>0.7579</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="F7">
         <v>0.7611</v>
       </c>
       <c r="G7">
-        <v>0.7689</v>
+        <v>0.76890000000000003</v>
       </c>
       <c r="H7">
-        <v>0.7565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.75649999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.7887</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="B8">
-        <v>0.7812</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C8">
-        <v>0.7991</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="D8">
         <v>0.7873</v>
       </c>
       <c r="E8">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F8">
-        <v>0.7828000000000001</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="G8">
-        <v>0.8007</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="H8">
-        <v>0.7922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.79220000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.7885</v>
+        <v>0.78849999999999998</v>
       </c>
       <c r="B9">
-        <v>0.7812</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C9">
-        <v>0.7991</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="D9">
-        <v>0.7874</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="E9">
-        <v>0.7879</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="F9">
-        <v>0.7829</v>
+        <v>0.78290000000000004</v>
       </c>
       <c r="G9">
-        <v>0.8007</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="H9">
-        <v>0.7922</v>
+        <v>0.79220000000000002</v>
       </c>
     </row>
   </sheetData>
